--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\test_automation\automation_script\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C572A804-6563-4794-8075-34DC01BF4489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -122,13 +116,16 @@
   </si>
   <si>
     <t>2024-08-27 15:33:42</t>
+  </si>
+  <si>
+    <t>2024-08-27 22:22:10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,21 +188,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +232,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -277,7 +266,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -312,10 +300,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,16 +475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,62 +508,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -586,7 +571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -600,7 +585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -614,50 +599,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>150</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="B20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="B21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="B25" t="s">
         <v>30</v>
       </c>

--- a/data/test_cases.xlsx
+++ b/data/test_cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>2024-08-27 22:22:10</t>
+  </si>
+  <si>
+    <t>2024-08-28 21:13:20</t>
+  </si>
+  <si>
+    <t>2024-08-28 21:54:08</t>
+  </si>
+  <si>
+    <t>2024-08-28 22:15:06</t>
   </si>
 </sst>
 </file>
@@ -600,9 +609,6 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17">
-        <v>16</v>
-      </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -620,15 +626,45 @@
       <c r="B18" t="s">
         <v>23</v>
       </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>150</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" t="s">
         <v>24</v>
       </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20">
+        <v>165</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
